--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.10_IE_Final.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.10_IE_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E974E41C-DCFE-455C-8020-1227DEBCB0C1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0FDC0A-5C55-4A38-AE74-FB1AB180D3F0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.10_IE_Final.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.10_IE_Final.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0FDC0A-5C55-4A38-AE74-FB1AB180D3F0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3B2E63-F5EF-4008-8E2B-D61A1930A3C2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -137,19 +137,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFE1A16C"/>
       </left>
       <right style="thin">
@@ -176,11 +163,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -191,17 +193,20 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,24 +545,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>43617</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
@@ -566,7 +571,7 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -576,7 +581,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
